--- a/Plan_de_Trabajo/Desempeño_Individual.xlsx
+++ b/Plan_de_Trabajo/Desempeño_Individual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\Clone\TechnoShop\Plan_de_Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\Clone1\TechnoShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68972FAE-43BB-45B8-B918-A084CAA766DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76C8E3-8F72-416E-949B-7A98330C53B1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{4E3A7CDA-D59C-4519-901F-488F81EA0792}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$9:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>DESEMPEÑO INDIVIDUAL DEL PROYECTO</t>
   </si>
@@ -157,12 +157,86 @@
   </si>
   <si>
     <t>Bueno</t>
+  </si>
+  <si>
+    <t>Actualización Requerimientos</t>
+  </si>
+  <si>
+    <t>Diagrama MVC</t>
+  </si>
+  <si>
+    <t>Actualizacion diagrama Clases</t>
+  </si>
+  <si>
+    <t>Revisión y actualización de los requerimientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Actualizacion Escenarios de uso</t>
+  </si>
+  <si>
+    <t>Diseño interfaz Usuario</t>
+  </si>
+  <si>
+    <t>Definición de elementos del diagrama</t>
+  </si>
+  <si>
+    <t>Union de los elementos y creación del diagrama</t>
+  </si>
+  <si>
+    <t>Revision y actualización del diagrama</t>
+  </si>
+  <si>
+    <t>De la clase conexión 
+a base de datos</t>
+  </si>
+  <si>
+    <t>Estandar de Codificacion</t>
+  </si>
+  <si>
+    <t>Elaboracion del documento</t>
+  </si>
+  <si>
+    <t>Interfaz de ventana Producto</t>
+  </si>
+  <si>
+    <t>Interfaz de ventanas: Tarjeta y
+ Reporte de ventas</t>
+  </si>
+  <si>
+    <t>Interfaz de ventanas: Home, Administrador, Categorias, IniciarSesion, Registro</t>
+  </si>
+  <si>
+    <t>Revisión y cambios del diagrama del módulo del administrador</t>
+  </si>
+  <si>
+    <t>Implementacion del MVC, usando capas</t>
+  </si>
+  <si>
+    <t>Implementacion de las clases Registro y Login</t>
+  </si>
+  <si>
+    <t>Implementacion de la clase Membresia</t>
+  </si>
+  <si>
+    <t>Excelente: (Mas de 150)</t>
+  </si>
+  <si>
+    <t>Bueno: (120-149)</t>
+  </si>
+  <si>
+    <t>Medio: (90-119)</t>
+  </si>
+  <si>
+    <t>Deficiente: (Menos de 90)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,182 +419,237 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFF9393"/>
@@ -828,23 +963,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041B546-DDE5-4C23-859E-629B691D3ED7}">
-  <dimension ref="A1:Y30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25"/>
+      <selection pane="topRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="10" max="11" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" customWidth="1"/>
@@ -854,31 +993,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -897,14 +1036,12 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,14 +1061,12 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,14 +1086,12 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,899 +1111,895 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U6" t="s">
+      <c r="Q6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="A7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="65"/>
+      <c r="G8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="61"/>
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25" t="s">
+      <c r="L8" s="55"/>
+      <c r="M8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="28" t="s">
+      <c r="N8" s="57"/>
+      <c r="O8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30" t="s">
+      <c r="P8" s="63"/>
+      <c r="Q8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="33" t="s">
+      <c r="R8" s="43"/>
+      <c r="S8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35" t="s">
+      <c r="T8" s="45"/>
+      <c r="U8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="36"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="V8" s="47"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="28">
         <v>0.2</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="29">
         <v>0.5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>0.4</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="14">
         <v>0.1</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="40">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="39">
-        <v>0</v>
-      </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="54" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="21">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="4">
         <v>0.6</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="16">
-        <v>0</v>
-      </c>
-      <c r="U9" s="37">
+      <c r="S9" s="13"/>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
         <f>SUM(T9+R9+P9+N9+L9+J9+H9+F9+D9)</f>
         <v>1.8</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="28">
         <v>0.6</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="14">
         <v>0.6</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="22">
         <v>0.15</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="21">
         <v>0.1</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="20">
         <v>0.3</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="4">
         <v>0.3</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="16">
-        <v>0</v>
-      </c>
-      <c r="U10" s="37">
+      <c r="S10" s="13"/>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
         <f>SUM(T10+R10+P10+N10+L10+J10+H10+F10+D10)</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46">
-        <v>0</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="40">
-        <v>0</v>
-      </c>
-      <c r="M11" s="43" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="21">
         <v>0.9</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="20">
         <v>0.7</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="4">
         <v>0.1</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="16">
-        <v>0</v>
-      </c>
-      <c r="U11" s="37">
+      <c r="S11" s="13"/>
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
         <f>SUM(T11+R11+P11+N11+L11+J11+H11+F11+D11)</f>
         <v>1.7</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="28">
         <v>0.2</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="4">
         <v>0.6</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="14">
         <v>0.2</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="22">
         <v>0.85</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="39">
-        <v>0</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="16">
-        <v>0</v>
-      </c>
-      <c r="U12" s="37">
+      <c r="M12" s="8"/>
+      <c r="N12" s="21">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
         <f>SUM(T12+R12+P12+N12+L12+J12+H12+F12+D12)</f>
         <v>1.8499999999999999</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46">
-        <v>0</v>
-      </c>
-      <c r="E13" s="52" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="29">
         <v>0.5</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="14">
         <v>0.1</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="40">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="39">
-        <v>0</v>
-      </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="16">
-        <v>1</v>
-      </c>
-      <c r="U13" s="37">
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
+      <c r="U13" s="19">
         <f>SUM(T13+R13+P13+N13+L13+J13+H13+F13+D13)</f>
         <v>1.6</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="32">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="18">
         <f>SUM(D9:D13)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="32">
+      <c r="E14" s="33"/>
+      <c r="F14" s="18">
         <f>SUM(F9:F13)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56">
+      <c r="G14" s="33"/>
+      <c r="H14" s="34">
         <f>SUM(H9:H13)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="56">
+      <c r="I14" s="24"/>
+      <c r="J14" s="34">
         <f>SUM(J9:J13)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="32">
+      <c r="K14" s="24"/>
+      <c r="L14" s="18">
         <f>SUM(L9:L13)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="32">
+      <c r="M14" s="23"/>
+      <c r="N14" s="18">
         <f>SUM(N9:N13)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="32">
+      <c r="O14" s="23"/>
+      <c r="P14" s="18">
         <f>SUM(P9:P13)</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="32">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="18">
         <f>SUM(R9:R13)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="32">
+      <c r="S14" s="23"/>
+      <c r="T14" s="18">
         <f>SUM(T9:T13)</f>
         <v>1</v>
       </c>
-      <c r="U14" s="41"/>
-      <c r="V14" s="45"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="27"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" s="38"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="38"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="38"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" s="38"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+    </row>
+    <row r="24" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25" t="s">
+      <c r="C24" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="31"/>
-      <c r="S24" s="33" t="s">
+      <c r="N24" s="59"/>
+      <c r="O24" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35" t="s">
+      <c r="R24" s="45"/>
+      <c r="S24" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V24" s="36"/>
-    </row>
-    <row r="25" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="T24" s="47"/>
+    </row>
+    <row r="25" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="46">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="28">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36">
+        <v>0</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="39">
+        <f>SUM(D25+R25+P25+N25+L25+J25+H25+F25)</f>
+        <v>1.65</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="22">
+        <v>0</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="21">
+        <v>1</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="4">
         <v>0.2</v>
       </c>
-      <c r="E25" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="51">
+      <c r="Q26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="S26" s="19">
+        <f>SUM(R26+P26+N26+L26+J26+H26+F26+D26)</f>
+        <v>2</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="22">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="12">
+        <v>0</v>
+      </c>
+      <c r="S27" s="19">
+        <f>SUM(R27+P27+N27+L27+J27+H27+F27+D27)</f>
+        <v>1.2</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="28">
         <v>0.5</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="E28" s="6"/>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="21">
+        <v>0</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R28" s="12">
         <v>0.4</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="40">
-        <v>0</v>
-      </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="39">
-        <v>0</v>
-      </c>
-      <c r="O25" s="27"/>
-      <c r="P25" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="S25" s="17"/>
-      <c r="T25" s="16">
-        <v>0</v>
-      </c>
-      <c r="U25" s="37">
-        <f>SUM(T25+R25+P25+N25+L25+J25+H25+F25+D25)</f>
-        <v>1.8</v>
-      </c>
-      <c r="V25" s="14" t="s">
+      <c r="S28" s="19">
+        <f>SUM(R28+P28+N28+L28+J28+H28+F28+D28)</f>
+        <v>1.55</v>
+      </c>
+      <c r="T28" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="46">
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="40">
-        <v>0.15</v>
-      </c>
-      <c r="M26" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="O26" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="38">
+    <row r="29" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="21">
+        <v>0</v>
+      </c>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29" s="12">
         <v>0.3</v>
       </c>
-      <c r="Q26" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="S26" s="17"/>
-      <c r="T26" s="16">
-        <v>0</v>
-      </c>
-      <c r="U26" s="37">
-        <f>SUM(T26+R26+P26+N26+L26+J26+H26+F26+D26)</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="V26" s="14" t="s">
+      <c r="S29" s="19">
+        <f>SUM(R29+P29+N29+L29+J29+H29+F29+D29)</f>
+        <v>1.6</v>
+      </c>
+      <c r="T29" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46">
-        <v>0</v>
-      </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="40">
-        <v>0</v>
-      </c>
-      <c r="M27" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="39">
-        <v>0.9</v>
-      </c>
-      <c r="O27" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="S27" s="17"/>
-      <c r="T27" s="16">
-        <v>0</v>
-      </c>
-      <c r="U27" s="37">
-        <f>SUM(T27+R27+P27+N27+L27+J27+H27+F27+D27)</f>
-        <v>1.7</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="40">
-        <v>0.85</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="39">
-        <v>0</v>
-      </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="17"/>
-      <c r="T28" s="16">
-        <v>0</v>
-      </c>
-      <c r="U28" s="37">
-        <f>SUM(T28+R28+P28+N28+L28+J28+H28+F28+D28)</f>
-        <v>1.8499999999999999</v>
-      </c>
-      <c r="V28" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46">
-        <v>0</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="40">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="39">
-        <v>0</v>
-      </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="8">
-        <v>0</v>
-      </c>
-      <c r="S29" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="T29" s="16">
-        <v>1</v>
-      </c>
-      <c r="U29" s="37">
-        <f>SUM(T29+R29+P29+N29+L29+J29+H29+F29+D29)</f>
-        <v>1.6</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="32">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="18">
         <f>SUM(D25:D29)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="32">
+      <c r="E30" s="33"/>
+      <c r="F30" s="34">
         <f>SUM(F25:F29)</f>
         <v>1</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56">
+      <c r="G30" s="24"/>
+      <c r="H30" s="34">
         <f>SUM(H25:H29)</f>
         <v>1</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="56">
+      <c r="I30" s="24"/>
+      <c r="J30" s="18">
         <f>SUM(J25:J29)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="32">
+        <v>1</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="18">
         <f>SUM(L25:L29)</f>
         <v>1</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="32">
+      <c r="M30" s="23"/>
+      <c r="N30" s="18">
         <f>SUM(N25:N29)</f>
         <v>1</v>
       </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="32">
+      <c r="O30" s="23"/>
+      <c r="P30" s="18">
         <f>SUM(P25:P29)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="32">
+      <c r="Q30" s="23"/>
+      <c r="R30" s="18">
         <f>SUM(R25:R29)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="S30" s="41"/>
-      <c r="T30" s="32">
-        <f>SUM(T25:T29)</f>
-        <v>1</v>
-      </c>
-      <c r="U30" s="41"/>
-      <c r="V30" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="S30" s="23"/>
+      <c r="T30" s="27"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:A14" xr:uid="{5123377D-0AB8-45D4-B1A9-C165C8A17590}"/>
-  <mergeCells count="23">
+  <autoFilter ref="A9:A14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="22">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A7:Y7"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A7:Y7"/>
     <mergeCell ref="A23:Y23"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plan_de_Trabajo/Desempeño_Individual.xlsx
+++ b/Plan_de_Trabajo/Desempeño_Individual.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\Clone1\TechnoShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76C8E3-8F72-416E-949B-7A98330C53B1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$9:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>DESEMPEÑO INDIVIDUAL DEL PROYECTO</t>
   </si>
@@ -169,9 +168,6 @@
   </si>
   <si>
     <t>Revisión y actualización de los requerimientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Actualizacion Escenarios de uso</t>
@@ -231,13 +227,124 @@
   </si>
   <si>
     <t>Deficiente: (Menos de 90)</t>
+  </si>
+  <si>
+    <t>Entrega final del proyecto</t>
+  </si>
+  <si>
+    <t>Imtegrante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaid Bojorquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Alpuche </t>
+  </si>
+  <si>
+    <t>Ulises Anconca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Duran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimiento de la bitacora de actividades </t>
+  </si>
+  <si>
+    <t>Uso del repositorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendario de actividades </t>
+  </si>
+  <si>
+    <t>Programacion de actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentacion del codigo </t>
+  </si>
+  <si>
+    <t>Al codificar</t>
+  </si>
+  <si>
+    <t>JAVADOC</t>
+  </si>
+  <si>
+    <t>VIDEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicacion de compra de productos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicacion administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicacion administrador  y edicion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recorrido por tienda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicacion registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento de requisitos </t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Dificultad</t>
+  </si>
+  <si>
+    <t>Horas presenciales</t>
+  </si>
+  <si>
+    <t>Horas no presenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horas no presenciales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dificultad </t>
+  </si>
+  <si>
+    <t>Integrante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento de requisitos actualizado </t>
+  </si>
+  <si>
+    <t>Calendario de actividades</t>
+  </si>
+  <si>
+    <t>Documentacion del codigo</t>
+  </si>
+  <si>
+    <t>Codificacion</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bitacora de actividades</t>
+  </si>
+  <si>
+    <t>Diseño de interfaz grafica</t>
+  </si>
+  <si>
+    <t>Dificualtad</t>
+  </si>
+  <si>
+    <t>Otros(investigacion, video etc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +360,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +466,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -415,11 +584,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +744,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,9 +885,103 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -645,15 +1008,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFE2B0D7"/>
       <color rgb="FFFF9393"/>
-      <color rgb="FFE2B0D7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -710,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -762,7 +1125,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -963,1043 +1326,2330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="S28" sqref="S28"/>
+      <selection pane="topRight" activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="21" width="15.85546875" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="9" width="14.85546875" customWidth="1"/>
+    <col min="12" max="14" width="16.85546875" customWidth="1"/>
+    <col min="16" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="24" width="13.140625" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1"/>
+    <col min="30" max="30" width="17.140625" customWidth="1"/>
+    <col min="31" max="32" width="15.85546875" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+    </row>
+    <row r="2" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="1"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AH3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="1"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="40"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="1"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q6" t="s">
+      <c r="X5" s="40"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-    </row>
-    <row r="8" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+    </row>
+    <row r="8" spans="1:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="95"/>
+      <c r="D8" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="61" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52" t="s">
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54" t="s">
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56" t="s">
+      <c r="U8" s="101"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="62" t="s">
+      <c r="X8" s="102"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="42" t="s">
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44" t="s">
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46" t="s">
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG8" s="75"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="28">
+      <c r="E9" s="31"/>
+      <c r="F9" s="28">
         <v>0.2</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="29">
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="29">
         <v>0.5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="K9" s="29"/>
+      <c r="L9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="4">
         <v>0.4</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="P9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="14">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14">
         <v>0.1</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="21">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="32" t="s">
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="22">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="4">
+      <c r="AC9" s="4">
         <v>0.6</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="12">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <f>SUM(T9+R9+P9+N9+L9+J9+H9+F9+D9)</f>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19">
+        <f>SUM(AE9+AC9+AA9+Y9+V9+S9+O9+J9+F9)</f>
         <v>1.8</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="AG9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28">
+      <c r="E10" s="31"/>
+      <c r="F10" s="28">
         <v>0.6</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14">
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14">
         <v>0.6</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="T10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="22">
+      <c r="U10" s="16"/>
+      <c r="V10" s="22">
         <v>0.15</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="W10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="21">
+      <c r="X10" s="25"/>
+      <c r="Y10" s="21">
         <v>0.1</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="Z10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="20">
+      <c r="AA10" s="20">
         <v>0.3</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="AB10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="4">
+      <c r="AC10" s="4">
         <v>0.3</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19">
-        <f>SUM(T10+R10+P10+N10+L10+J10+H10+F10+D10)</f>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="19">
+        <f>SUM(AE10+AC10+AA10+Y10+V10+S10+O10+J10+F10)</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="AG10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="21">
+      <c r="X11" s="25"/>
+      <c r="Y11" s="21">
         <v>0.9</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="Z11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="20">
+      <c r="AA11" s="20">
         <v>0.7</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="AB11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="4">
+      <c r="AC11" s="4">
         <v>0.1</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="12">
-        <v>0</v>
-      </c>
-      <c r="U11" s="19">
-        <f>SUM(T11+R11+P11+N11+L11+J11+H11+F11+D11)</f>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="19">
+        <f>SUM(AE11+AC11+AA11+Y11+V11+S11+O11+J11+F11)</f>
         <v>1.7</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="AG11" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="28">
+      <c r="E12" s="31"/>
+      <c r="F12" s="28">
         <v>0.2</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="4">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="4">
         <v>0.6</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="14">
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14">
         <v>0.2</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="T12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="22">
+      <c r="U12" s="16"/>
+      <c r="V12" s="22">
         <v>0.85</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="21">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="19">
-        <f>SUM(T12+R12+P12+N12+L12+J12+H12+F12+D12)</f>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19">
+        <f>SUM(AE12+AC12+AA12+Y12+V12+S12+O12+J12+F12)</f>
         <v>1.8499999999999999</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="AG12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="29">
         <v>0.5</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="14">
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14">
         <v>0.1</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="21">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="15" t="s">
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="22">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="12">
-        <v>1</v>
-      </c>
-      <c r="U13" s="19">
-        <f>SUM(T13+R13+P13+N13+L13+J13+H13+F13+D13)</f>
+      <c r="AE13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="19">
+        <f>SUM(AE13+AC13+AA13+Y13+V13+S13+O13+J13+F13)</f>
         <v>1.6</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="AG13" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="18">
-        <f>SUM(D9:D13)</f>
-        <v>1</v>
-      </c>
+      <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="18">
         <f>SUM(F9:F13)</f>
         <v>1</v>
       </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="34">
-        <f>SUM(H9:H13)</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="34">
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="18">
         <f>SUM(J9:J13)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="112"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34">
+        <f>SUM(O9:O13)</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="34">
+        <f>SUM(S9:S13)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="18">
-        <f>SUM(L9:L13)</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="18">
-        <f>SUM(N9:N13)</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="18">
-        <f>SUM(P9:P13)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="18">
-        <f>SUM(R9:R13)</f>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="18">
+        <f>SUM(V9:V13)</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="18">
+        <f>SUM(Y9:Y13)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="18">
+        <f>SUM(AA9:AA13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="18">
+        <f>SUM(AC9:AC13)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="18">
-        <f>SUM(T9:T13)</f>
-        <v>1</v>
-      </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="27"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R17" s="2" t="s">
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="18">
+        <f>SUM(AE9:AE13)</f>
+        <v>1</v>
+      </c>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="27"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="38"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R18" t="s">
+      <c r="AD17" s="38"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="38"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="38"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R19" t="s">
+      <c r="AD19" s="38"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC20" t="s">
         <v>64</v>
       </c>
-      <c r="S19" s="38"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R20" t="s">
+      <c r="AD20" s="38"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC21" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="38"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-    </row>
-    <row r="24" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="88"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="88"/>
+    </row>
+    <row r="24" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="95"/>
+      <c r="D24" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52" t="s">
+      <c r="E24" s="110"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="102"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="44" t="s">
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46" t="s">
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="T24" s="47"/>
-    </row>
-    <row r="25" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="75"/>
+    </row>
+    <row r="25" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="28">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="14">
+      <c r="C25" s="5"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14">
         <v>0.5</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="22">
+      <c r="P25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="22">
         <v>0.05</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="21">
-        <v>0</v>
-      </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36">
-        <v>0</v>
-      </c>
-      <c r="O25" s="32"/>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R25" s="12">
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="21">
+        <v>0</v>
+      </c>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC25" s="12">
         <v>0.1</v>
       </c>
-      <c r="S25" s="39">
-        <f>SUM(D25+R25+P25+N25+L25+J25+H25+F25)</f>
+      <c r="AD25" s="39">
+        <f>SUM(F25+AC25+AA25+Y25+V25+S25+O25+J25)</f>
         <v>1.65</v>
       </c>
-      <c r="T25" s="10" t="s">
+      <c r="AE25" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="28">
+      <c r="E26" s="31"/>
+      <c r="F26" s="28">
         <v>0.5</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="22">
-        <v>0</v>
-      </c>
-      <c r="K26" s="25" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="22">
+        <v>0</v>
+      </c>
+      <c r="T26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="21">
+        <v>1</v>
+      </c>
+      <c r="W26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="Z26" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AB26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="21">
-        <v>1</v>
-      </c>
-      <c r="M26" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="4">
+      <c r="AC26" s="12">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R26" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="S26" s="19">
-        <f>SUM(R26+P26+N26+L26+J26+H26+F26+D26)</f>
-        <v>2</v>
-      </c>
-      <c r="T26" s="10" t="s">
+      <c r="AD26" s="19">
+        <f>SUM(AC26+AA26+Y26+V26+S26+O26+J26+F26)</f>
+        <v>2</v>
+      </c>
+      <c r="AE26" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="21">
-        <v>0</v>
-      </c>
-      <c r="M27" s="37" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="22">
+        <v>0</v>
+      </c>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="21">
+        <v>0</v>
+      </c>
+      <c r="W27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="36">
+      <c r="X27" s="37"/>
+      <c r="Y27" s="36">
         <v>0.9</v>
       </c>
-      <c r="O27" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="Z27" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27" s="4">
         <v>0.3</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="12">
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
-        <f>SUM(R27+P27+N27+L27+J27+H27+F27+D27)</f>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="19">
+        <f>SUM(AC27+AA27+Y27+V27+S27+O27+J27+F27)</f>
         <v>1.2</v>
       </c>
-      <c r="T27" s="10" t="s">
+      <c r="AE27" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="28">
+      <c r="E28" s="31"/>
+      <c r="F28" s="28">
         <v>0.5</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="14">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14">
         <v>0.5</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="22">
+      <c r="P28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="22">
         <v>0.15</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="21">
-        <v>0</v>
-      </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="R28" s="12">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="21">
+        <v>0</v>
+      </c>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC28" s="12">
         <v>0.4</v>
       </c>
-      <c r="S28" s="19">
-        <f>SUM(R28+P28+N28+L28+J28+H28+F28+D28)</f>
+      <c r="AD28" s="19">
+        <f>SUM(AC28+AA28+Y28+V28+S28+O28+J28+F28)</f>
         <v>1.55</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="AE28" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="22">
+      <c r="C29" s="5"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="22">
         <v>0.8</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="21">
-        <v>0</v>
-      </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" s="4">
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="21">
+        <v>0</v>
+      </c>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA29" s="4">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="R29" s="12">
+      <c r="AB29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC29" s="12">
         <v>0.3</v>
       </c>
-      <c r="S29" s="19">
-        <f>SUM(R29+P29+N29+L29+J29+H29+F29+D29)</f>
+      <c r="AD29" s="19">
+        <f>SUM(AC29+AA29+Y29+V29+S29+O29+J29+F29)</f>
         <v>1.6</v>
       </c>
-      <c r="T29" s="10" t="s">
+      <c r="AE29" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="18">
-        <f>SUM(D25:D29)</f>
-        <v>1</v>
-      </c>
+      <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="34">
+      <c r="F30" s="18">
         <f>SUM(F25:F29)</f>
         <v>1</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="34">
-        <f>SUM(H25:H29)</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="18">
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34">
         <f>SUM(J25:J29)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="18">
-        <f>SUM(L25:L29)</f>
-        <v>1</v>
-      </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="18">
-        <f>SUM(N25:N29)</f>
-        <v>1</v>
-      </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="18">
-        <f>SUM(P25:P29)</f>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="18">
-        <f>SUM(R25:R29)</f>
-        <v>1</v>
-      </c>
-      <c r="S30" s="23"/>
-      <c r="T30" s="27"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>47</v>
+      <c r="K30" s="112"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="34">
+        <f>SUM(O25:O29)</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="18">
+        <f>SUM(S25:S29)</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="18">
+        <f>SUM(V25:V29)</f>
+        <v>1</v>
+      </c>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="18">
+        <f>SUM(Y25:Y29)</f>
+        <v>1</v>
+      </c>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="18">
+        <f>SUM(AA25:AA29)</f>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="18">
+        <f>SUM(AC25:AC29)</f>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="27"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+    </row>
+    <row r="37" spans="1:33" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+    </row>
+    <row r="38" spans="1:33" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="S38" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="T38" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="V38" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="W38" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="X38" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y38" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+    </row>
+    <row r="39" spans="1:33" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="43">
+        <v>1</v>
+      </c>
+      <c r="C39" s="107">
+        <v>1</v>
+      </c>
+      <c r="D39" s="46">
+        <v>1</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="108">
+        <v>2</v>
+      </c>
+      <c r="G39" s="105">
+        <v>1</v>
+      </c>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105">
+        <v>1</v>
+      </c>
+      <c r="J39" s="104">
+        <v>2</v>
+      </c>
+      <c r="K39" s="104"/>
+      <c r="L39" s="53">
+        <v>2</v>
+      </c>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="44">
+        <v>1</v>
+      </c>
+      <c r="C40" s="108">
+        <v>2</v>
+      </c>
+      <c r="D40" s="46">
+        <v>1</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="108">
+        <v>2</v>
+      </c>
+      <c r="G40" s="106">
+        <v>1</v>
+      </c>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="104">
+        <v>2</v>
+      </c>
+      <c r="K40" s="104"/>
+      <c r="L40" s="53">
+        <v>2</v>
+      </c>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="P40" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="T40" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="U40" s="50"/>
+      <c r="V40" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="W40" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="44">
+        <v>1</v>
+      </c>
+      <c r="C41" s="108">
+        <v>2</v>
+      </c>
+      <c r="D41" s="47">
+        <v>1</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="108">
+        <v>2</v>
+      </c>
+      <c r="G41" s="105">
+        <v>1</v>
+      </c>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105">
+        <v>1</v>
+      </c>
+      <c r="J41" s="104">
+        <v>2</v>
+      </c>
+      <c r="K41" s="104"/>
+      <c r="L41" s="53">
+        <v>2</v>
+      </c>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="44">
+        <v>1</v>
+      </c>
+      <c r="C42" s="108">
+        <v>1</v>
+      </c>
+      <c r="D42" s="46">
+        <v>1</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="108">
+        <v>2</v>
+      </c>
+      <c r="G42" s="106">
+        <v>1</v>
+      </c>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="104">
+        <v>2</v>
+      </c>
+      <c r="K42" s="104"/>
+      <c r="L42" s="53">
+        <v>2</v>
+      </c>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="P42" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="T42" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="U42" s="50"/>
+      <c r="V42" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="W42" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="44">
+        <v>1</v>
+      </c>
+      <c r="C43" s="108">
+        <v>1</v>
+      </c>
+      <c r="D43" s="47">
+        <v>1</v>
+      </c>
+      <c r="E43" s="47"/>
+      <c r="F43" s="108">
+        <v>2</v>
+      </c>
+      <c r="G43" s="106">
+        <v>1</v>
+      </c>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="104">
+        <v>2</v>
+      </c>
+      <c r="K43" s="104"/>
+      <c r="L43" s="53">
+        <v>2</v>
+      </c>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="P43" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="T43" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="U43" s="50"/>
+      <c r="V43" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="W43" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C44" s="109">
+        <f>SUM(C39:C43)</f>
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D39:D43)</f>
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <f>SUM(F39:F43)</f>
+        <v>10</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+    </row>
+    <row r="48" spans="1:33" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="S48" s="124"/>
+      <c r="T48" s="124"/>
+      <c r="U48" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="V48" s="131"/>
+      <c r="W48" s="131"/>
+      <c r="X48" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y48" s="132"/>
+      <c r="Z48" s="132"/>
+    </row>
+    <row r="49" spans="1:30" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="66"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="M49" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="O49" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q49" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="R49" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="S49" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="T49" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="U49" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="V49" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="W49" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="X49" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y49" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z49" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA49" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="125">
+        <v>100</v>
+      </c>
+      <c r="C50" s="97">
+        <v>1</v>
+      </c>
+      <c r="D50" s="97">
+        <v>2</v>
+      </c>
+      <c r="E50" s="97">
+        <f>C50*D50</f>
+        <v>2</v>
+      </c>
+      <c r="F50" s="117">
+        <v>1</v>
+      </c>
+      <c r="G50" s="117">
+        <v>2</v>
+      </c>
+      <c r="H50" s="117">
+        <f>F50*G50</f>
+        <v>2</v>
+      </c>
+      <c r="I50" s="129">
+        <v>1</v>
+      </c>
+      <c r="J50" s="129">
+        <v>1</v>
+      </c>
+      <c r="K50" s="129">
+        <f>I50*J50</f>
+        <v>1</v>
+      </c>
+      <c r="L50" s="120">
+        <v>2</v>
+      </c>
+      <c r="M50" s="120">
+        <v>1</v>
+      </c>
+      <c r="N50" s="120">
+        <f>L50*M50</f>
+        <v>2</v>
+      </c>
+      <c r="O50" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="P50" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="123">
+        <f>O50*P50</f>
+        <v>1</v>
+      </c>
+      <c r="R50" s="121">
+        <v>5</v>
+      </c>
+      <c r="S50" s="121">
+        <v>3</v>
+      </c>
+      <c r="T50" s="121">
+        <f>R50*S50</f>
+        <v>15</v>
+      </c>
+      <c r="U50" s="130">
+        <v>5</v>
+      </c>
+      <c r="V50" s="130">
+        <v>1</v>
+      </c>
+      <c r="W50" s="130">
+        <f>U50*V50</f>
+        <v>5</v>
+      </c>
+      <c r="X50" s="56">
+        <v>5</v>
+      </c>
+      <c r="Y50" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="56">
+        <f>X50*Y50</f>
+        <v>10</v>
+      </c>
+      <c r="AA50">
+        <f>E50+H50+K50+N50+Q50+T50+W50+Z50</f>
+        <v>38</v>
+      </c>
+      <c r="AD50">
+        <f>N50+Q50+T50+W50+Z50+AC50</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="125">
+        <v>100</v>
+      </c>
+      <c r="C51" s="97">
+        <v>1</v>
+      </c>
+      <c r="D51" s="97">
+        <v>2</v>
+      </c>
+      <c r="E51" s="97">
+        <f t="shared" ref="E51:E54" si="0">C51*D51</f>
+        <v>2</v>
+      </c>
+      <c r="F51" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="117">
+        <v>2</v>
+      </c>
+      <c r="H51" s="117">
+        <f t="shared" ref="H51:H54" si="1">F51*G51</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="129">
+        <v>1</v>
+      </c>
+      <c r="J51" s="129">
+        <v>1</v>
+      </c>
+      <c r="K51" s="129">
+        <f t="shared" ref="K51:K54" si="2">I51*J51</f>
+        <v>1</v>
+      </c>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120">
+        <v>1</v>
+      </c>
+      <c r="N51" s="120">
+        <f t="shared" ref="N51:N54" si="3">L51*M51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="123">
+        <v>2</v>
+      </c>
+      <c r="P51" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="123">
+        <f t="shared" ref="Q51:Q54" si="4">O51*P51</f>
+        <v>4</v>
+      </c>
+      <c r="R51" s="121">
+        <v>20</v>
+      </c>
+      <c r="S51" s="121">
+        <v>3</v>
+      </c>
+      <c r="T51" s="121">
+        <f t="shared" ref="T51:T54" si="5">R51*S51</f>
+        <v>60</v>
+      </c>
+      <c r="U51" s="130"/>
+      <c r="V51" s="130">
+        <v>1</v>
+      </c>
+      <c r="W51" s="130">
+        <f t="shared" ref="W51:W54" si="6">U51*V51</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="56">
+        <v>5</v>
+      </c>
+      <c r="Y51" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z51" s="56">
+        <f t="shared" ref="Z51:Z54" si="7">X51*Y51</f>
+        <v>10</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" ref="AA51:AA54" si="8">E51+H51+K51+N51+Q51+T51+W51+Z51</f>
+        <v>78</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" ref="AD51:AD54" si="9">N51+Q51+T51+W51+Z51+AC51</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="125">
+        <v>100</v>
+      </c>
+      <c r="C52" s="97">
+        <v>1</v>
+      </c>
+      <c r="D52" s="97">
+        <v>2</v>
+      </c>
+      <c r="E52" s="97">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="117">
+        <v>1</v>
+      </c>
+      <c r="G52" s="117">
+        <v>2</v>
+      </c>
+      <c r="H52" s="117">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I52" s="129">
+        <v>1</v>
+      </c>
+      <c r="J52" s="129">
+        <v>1</v>
+      </c>
+      <c r="K52" s="129">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="120">
+        <v>2</v>
+      </c>
+      <c r="M52" s="120">
+        <v>1</v>
+      </c>
+      <c r="N52" s="120">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O52" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="P52" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="123">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R52" s="121">
+        <v>5</v>
+      </c>
+      <c r="S52" s="121">
+        <v>3</v>
+      </c>
+      <c r="T52" s="121">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U52" s="130">
+        <v>5</v>
+      </c>
+      <c r="V52" s="130">
+        <v>1</v>
+      </c>
+      <c r="W52" s="130">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X52" s="56">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="56">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="125">
+        <v>100</v>
+      </c>
+      <c r="C53" s="97">
+        <v>2</v>
+      </c>
+      <c r="D53" s="97">
+        <v>2</v>
+      </c>
+      <c r="E53" s="97">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F53" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="117">
+        <v>2</v>
+      </c>
+      <c r="H53" s="117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="129">
+        <v>1</v>
+      </c>
+      <c r="J53" s="129">
+        <v>1</v>
+      </c>
+      <c r="K53" s="129">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L53" s="120">
+        <v>2</v>
+      </c>
+      <c r="M53" s="120">
+        <v>1</v>
+      </c>
+      <c r="N53" s="120">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O53" s="123">
+        <v>2</v>
+      </c>
+      <c r="P53" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="123">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R53" s="121">
+        <v>15</v>
+      </c>
+      <c r="S53" s="121">
+        <v>3</v>
+      </c>
+      <c r="T53" s="121">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="U53" s="130">
+        <v>5</v>
+      </c>
+      <c r="V53" s="130">
+        <v>1</v>
+      </c>
+      <c r="W53" s="130">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X53" s="56">
+        <v>5</v>
+      </c>
+      <c r="Y53" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z53" s="56">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="125">
+        <v>100</v>
+      </c>
+      <c r="C54" s="97">
+        <v>1</v>
+      </c>
+      <c r="D54" s="97">
+        <v>2</v>
+      </c>
+      <c r="E54" s="97">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="117">
+        <v>2</v>
+      </c>
+      <c r="H54" s="117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="129">
+        <v>1</v>
+      </c>
+      <c r="J54" s="129">
+        <v>1</v>
+      </c>
+      <c r="K54" s="129">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="120">
+        <v>2</v>
+      </c>
+      <c r="M54" s="120">
+        <v>1</v>
+      </c>
+      <c r="N54" s="120">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O54" s="123">
+        <v>3</v>
+      </c>
+      <c r="P54" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="123">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="R54" s="121">
+        <v>10</v>
+      </c>
+      <c r="S54" s="121">
+        <v>3</v>
+      </c>
+      <c r="T54" s="121">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="U54" s="130">
+        <v>5</v>
+      </c>
+      <c r="V54" s="130">
+        <v>1</v>
+      </c>
+      <c r="W54" s="130">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X54" s="56">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="56">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="9"/>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:A14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="22">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
+  <autoFilter ref="A9:A14"/>
+  <mergeCells count="38">
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A7:AJ7"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="A23:AJ23"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="A36:AG36"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plan_de_Trabajo/Desempeño_Individual.xlsx
+++ b/Plan_de_Trabajo/Desempeño_Individual.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmanuel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$9:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>DESEMPEÑO INDIVIDUAL DEL PROYECTO</t>
   </si>
@@ -338,13 +338,31 @@
   </si>
   <si>
     <t>Otros(investigacion, video etc)</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Excelente (90)</t>
+  </si>
+  <si>
+    <t>Bueno (70-89)</t>
+  </si>
+  <si>
+    <t>Medio (50-69)</t>
+  </si>
+  <si>
+    <t>Deficiente (&lt;50)</t>
+  </si>
+  <si>
+    <t>Deficiente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +398,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +533,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -617,12 +648,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,102 +872,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,24 +882,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -923,9 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -936,48 +902,172 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,7 +1163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1125,7 +1215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1327,12 +1417,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="T51" sqref="T51"/>
+      <selection pane="topRight" activeCell="AG55" sqref="AG55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,47 +1442,48 @@
     <col min="28" max="28" width="18.5703125" customWidth="1"/>
     <col min="29" max="29" width="15.28515625" customWidth="1"/>
     <col min="30" max="30" width="17.140625" customWidth="1"/>
-    <col min="31" max="32" width="15.85546875" customWidth="1"/>
+    <col min="31" max="31" width="20.7109375" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" customWidth="1"/>
     <col min="33" max="33" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1544,101 +1635,101 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
+      <c r="A7" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
     </row>
     <row r="8" spans="1:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="92" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="89" t="s">
+      <c r="J8" s="99"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="80" t="s">
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="82" t="s">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="101"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="84" t="s">
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="90" t="s">
+      <c r="X8" s="110"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="70" t="s">
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="72" t="s">
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="74" t="s">
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AG8" s="75"/>
+      <c r="AG8" s="93"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
@@ -2013,7 +2104,7 @@
         <f>SUM(J9:J13)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="112"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
@@ -2088,97 +2179,97 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
+      <c r="A23" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="125"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="125"/>
+      <c r="AI23" s="125"/>
+      <c r="AJ23" s="125"/>
     </row>
     <row r="24" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="76" t="s">
+      <c r="C24" s="63"/>
+      <c r="D24" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78" t="s">
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="80" t="s">
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82" t="s">
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="84" t="s">
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="U24" s="102"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="86" t="s">
+      <c r="U24" s="110"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="70" t="s">
+      <c r="X24" s="123"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="72" t="s">
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="74" t="s">
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AE24" s="75"/>
+      <c r="AE24" s="93"/>
     </row>
     <row r="25" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -2525,7 +2616,7 @@
         <f>SUM(J25:J29)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="112"/>
+      <c r="K30" s="73"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -2566,41 +2657,41 @@
       <c r="AE30" s="27"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="89"/>
+      <c r="AB36" s="89"/>
+      <c r="AC36" s="89"/>
+      <c r="AD36" s="89"/>
+      <c r="AE36" s="89"/>
+      <c r="AF36" s="89"/>
+      <c r="AG36" s="89"/>
     </row>
     <row r="37" spans="1:33" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
@@ -2609,41 +2700,41 @@
       <c r="B37" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="62" t="s">
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="51"/>
-      <c r="L37" s="63" t="s">
+      <c r="L37" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="64" t="s">
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="66" t="s">
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="67" t="s">
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
       <c r="Z37" s="42"/>
       <c r="AA37" s="42"/>
       <c r="AB37" s="42"/>
@@ -2652,14 +2743,14 @@
     <row r="38" spans="1:33" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="64" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="45"/>
-      <c r="F38" s="94" t="s">
+      <c r="F38" s="62" t="s">
         <v>88</v>
       </c>
       <c r="G38" s="51" t="s">
@@ -2723,27 +2814,27 @@
       <c r="B39" s="43">
         <v>1</v>
       </c>
-      <c r="C39" s="107">
+      <c r="C39" s="69">
         <v>1</v>
       </c>
       <c r="D39" s="46">
         <v>1</v>
       </c>
       <c r="E39" s="46"/>
-      <c r="F39" s="108">
-        <v>2</v>
-      </c>
-      <c r="G39" s="105">
-        <v>1</v>
-      </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105">
-        <v>1</v>
-      </c>
-      <c r="J39" s="104">
-        <v>2</v>
-      </c>
-      <c r="K39" s="104"/>
+      <c r="F39" s="70">
+        <v>2</v>
+      </c>
+      <c r="G39" s="67">
+        <v>1</v>
+      </c>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67">
+        <v>1</v>
+      </c>
+      <c r="J39" s="66">
+        <v>2</v>
+      </c>
+      <c r="K39" s="66"/>
       <c r="L39" s="53">
         <v>2</v>
       </c>
@@ -2774,25 +2865,25 @@
       <c r="B40" s="44">
         <v>1</v>
       </c>
-      <c r="C40" s="108">
+      <c r="C40" s="70">
         <v>2</v>
       </c>
       <c r="D40" s="46">
         <v>1</v>
       </c>
       <c r="E40" s="46"/>
-      <c r="F40" s="108">
-        <v>2</v>
-      </c>
-      <c r="G40" s="106">
-        <v>1</v>
-      </c>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="104">
-        <v>2</v>
-      </c>
-      <c r="K40" s="104"/>
+      <c r="F40" s="70">
+        <v>2</v>
+      </c>
+      <c r="G40" s="68">
+        <v>1</v>
+      </c>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="66">
+        <v>2</v>
+      </c>
+      <c r="K40" s="66"/>
       <c r="L40" s="53">
         <v>2</v>
       </c>
@@ -2831,27 +2922,27 @@
       <c r="B41" s="44">
         <v>1</v>
       </c>
-      <c r="C41" s="108">
+      <c r="C41" s="70">
         <v>2</v>
       </c>
       <c r="D41" s="47">
         <v>1</v>
       </c>
       <c r="E41" s="47"/>
-      <c r="F41" s="108">
-        <v>2</v>
-      </c>
-      <c r="G41" s="105">
-        <v>1</v>
-      </c>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105">
-        <v>1</v>
-      </c>
-      <c r="J41" s="104">
-        <v>2</v>
-      </c>
-      <c r="K41" s="104"/>
+      <c r="F41" s="70">
+        <v>2</v>
+      </c>
+      <c r="G41" s="67">
+        <v>1</v>
+      </c>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67">
+        <v>1</v>
+      </c>
+      <c r="J41" s="66">
+        <v>2</v>
+      </c>
+      <c r="K41" s="66"/>
       <c r="L41" s="53">
         <v>2</v>
       </c>
@@ -2882,25 +2973,25 @@
       <c r="B42" s="44">
         <v>1</v>
       </c>
-      <c r="C42" s="108">
+      <c r="C42" s="70">
         <v>1</v>
       </c>
       <c r="D42" s="46">
         <v>1</v>
       </c>
       <c r="E42" s="46"/>
-      <c r="F42" s="108">
-        <v>2</v>
-      </c>
-      <c r="G42" s="106">
-        <v>1</v>
-      </c>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="104">
-        <v>2</v>
-      </c>
-      <c r="K42" s="104"/>
+      <c r="F42" s="70">
+        <v>2</v>
+      </c>
+      <c r="G42" s="68">
+        <v>1</v>
+      </c>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="66">
+        <v>2</v>
+      </c>
+      <c r="K42" s="66"/>
       <c r="L42" s="53">
         <v>2</v>
       </c>
@@ -2939,25 +3030,25 @@
       <c r="B43" s="44">
         <v>1</v>
       </c>
-      <c r="C43" s="108">
+      <c r="C43" s="70">
         <v>1</v>
       </c>
       <c r="D43" s="47">
         <v>1</v>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="108">
-        <v>2</v>
-      </c>
-      <c r="G43" s="106">
-        <v>1</v>
-      </c>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="104">
-        <v>2</v>
-      </c>
-      <c r="K43" s="104"/>
+      <c r="F43" s="70">
+        <v>2</v>
+      </c>
+      <c r="G43" s="68">
+        <v>1</v>
+      </c>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="66">
+        <v>2</v>
+      </c>
+      <c r="K43" s="66"/>
       <c r="L43" s="53">
         <v>2</v>
       </c>
@@ -2990,7 +3081,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C44" s="109">
+      <c r="C44" s="71">
         <f>SUM(C39:C43)</f>
         <v>7</v>
       </c>
@@ -3007,117 +3098,117 @@
       <c r="I44" s="44"/>
     </row>
     <row r="48" spans="1:33" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="116" t="s">
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="128" t="s">
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="119" t="s">
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="122" t="s">
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="124" t="s">
+      <c r="P48" s="133"/>
+      <c r="Q48" s="133"/>
+      <c r="R48" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="S48" s="124"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="131" t="s">
+      <c r="S48" s="134"/>
+      <c r="T48" s="134"/>
+      <c r="U48" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="V48" s="131"/>
-      <c r="W48" s="131"/>
-      <c r="X48" s="132" t="s">
+      <c r="V48" s="127"/>
+      <c r="W48" s="127"/>
+      <c r="X48" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="Y48" s="132"/>
-      <c r="Z48" s="132"/>
-    </row>
-    <row r="49" spans="1:30" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="115" t="s">
+      <c r="Y48" s="128"/>
+      <c r="Z48" s="128"/>
+    </row>
+    <row r="49" spans="1:31" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="115" t="s">
+      <c r="E49" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="H49" s="118" t="s">
+      <c r="H49" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="129" t="s">
+      <c r="I49" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J49" s="129" t="s">
+      <c r="J49" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="K49" s="129" t="s">
+      <c r="K49" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="L49" s="120" t="s">
+      <c r="L49" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="M49" s="120" t="s">
+      <c r="M49" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="N49" s="120" t="s">
+      <c r="N49" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="O49" s="123" t="s">
+      <c r="O49" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="P49" s="123" t="s">
+      <c r="P49" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="Q49" s="123" t="s">
+      <c r="Q49" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="R49" s="121" t="s">
+      <c r="R49" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="S49" s="121" t="s">
+      <c r="S49" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="T49" s="121" t="s">
+      <c r="T49" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="U49" s="130" t="s">
+      <c r="U49" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="V49" s="130" t="s">
+      <c r="V49" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="130" t="s">
+      <c r="W49" s="84" t="s">
         <v>98</v>
       </c>
       <c r="X49" s="56" t="s">
@@ -3132,173 +3223,179 @@
       <c r="AA49" s="56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC49" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD49" s="85"/>
+    </row>
+    <row r="50" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="125">
+      <c r="B50" s="81">
         <v>100</v>
       </c>
-      <c r="C50" s="97">
-        <v>1</v>
-      </c>
-      <c r="D50" s="97">
-        <v>2</v>
-      </c>
-      <c r="E50" s="97">
+      <c r="C50" s="65">
+        <v>1</v>
+      </c>
+      <c r="D50" s="65">
+        <v>2</v>
+      </c>
+      <c r="E50" s="65">
         <f>C50*D50</f>
         <v>2</v>
       </c>
-      <c r="F50" s="117">
-        <v>1</v>
-      </c>
-      <c r="G50" s="117">
-        <v>2</v>
-      </c>
-      <c r="H50" s="117">
+      <c r="F50" s="76">
+        <v>1</v>
+      </c>
+      <c r="G50" s="76">
+        <v>2</v>
+      </c>
+      <c r="H50" s="76">
         <f>F50*G50</f>
         <v>2</v>
       </c>
-      <c r="I50" s="129">
-        <v>1</v>
-      </c>
-      <c r="J50" s="129">
-        <v>1</v>
-      </c>
-      <c r="K50" s="129">
+      <c r="I50" s="83">
+        <v>1</v>
+      </c>
+      <c r="J50" s="83">
+        <v>1</v>
+      </c>
+      <c r="K50" s="83">
         <f>I50*J50</f>
         <v>1</v>
       </c>
-      <c r="L50" s="120">
-        <v>2</v>
-      </c>
-      <c r="M50" s="120">
-        <v>1</v>
-      </c>
-      <c r="N50" s="120">
+      <c r="L50" s="78">
+        <v>2</v>
+      </c>
+      <c r="M50" s="78">
+        <v>1</v>
+      </c>
+      <c r="N50" s="78">
         <f>L50*M50</f>
         <v>2</v>
       </c>
-      <c r="O50" s="123">
+      <c r="O50" s="80">
         <v>0.5</v>
       </c>
-      <c r="P50" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="123">
+      <c r="P50" s="80">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="80">
         <f>O50*P50</f>
         <v>1</v>
       </c>
-      <c r="R50" s="121">
+      <c r="R50" s="79">
         <v>5</v>
       </c>
-      <c r="S50" s="121">
+      <c r="S50" s="79">
         <v>3</v>
       </c>
-      <c r="T50" s="121">
+      <c r="T50" s="79">
         <f>R50*S50</f>
         <v>15</v>
       </c>
-      <c r="U50" s="130">
-        <v>5</v>
-      </c>
-      <c r="V50" s="130">
-        <v>1</v>
-      </c>
-      <c r="W50" s="130">
+      <c r="U50" s="84">
+        <v>3</v>
+      </c>
+      <c r="V50" s="84">
+        <v>1</v>
+      </c>
+      <c r="W50" s="84">
         <f>U50*V50</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X50" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y50" s="56">
         <v>2</v>
       </c>
       <c r="Z50" s="56">
         <f>X50*Y50</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA50">
         <f>E50+H50+K50+N50+Q50+T50+W50+Z50</f>
-        <v>38</v>
-      </c>
-      <c r="AD50">
-        <f>N50+Q50+T50+W50+Z50+AC50</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC50" s="86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="125">
+      <c r="B51" s="81">
         <v>100</v>
       </c>
-      <c r="C51" s="97">
-        <v>1</v>
-      </c>
-      <c r="D51" s="97">
-        <v>2</v>
-      </c>
-      <c r="E51" s="97">
+      <c r="C51" s="65">
+        <v>1</v>
+      </c>
+      <c r="D51" s="65">
+        <v>2</v>
+      </c>
+      <c r="E51" s="65">
         <f t="shared" ref="E51:E54" si="0">C51*D51</f>
         <v>2</v>
       </c>
-      <c r="F51" s="117">
+      <c r="F51" s="76">
         <v>0.5</v>
       </c>
-      <c r="G51" s="117">
-        <v>2</v>
-      </c>
-      <c r="H51" s="117">
+      <c r="G51" s="76">
+        <v>2</v>
+      </c>
+      <c r="H51" s="76">
         <f t="shared" ref="H51:H54" si="1">F51*G51</f>
         <v>1</v>
       </c>
-      <c r="I51" s="129">
-        <v>1</v>
-      </c>
-      <c r="J51" s="129">
-        <v>1</v>
-      </c>
-      <c r="K51" s="129">
+      <c r="I51" s="83">
+        <v>1</v>
+      </c>
+      <c r="J51" s="83">
+        <v>1</v>
+      </c>
+      <c r="K51" s="83">
         <f t="shared" ref="K51:K54" si="2">I51*J51</f>
         <v>1</v>
       </c>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120">
-        <v>1</v>
-      </c>
-      <c r="N51" s="120">
+      <c r="L51" s="78"/>
+      <c r="M51" s="78">
+        <v>1</v>
+      </c>
+      <c r="N51" s="78">
         <f t="shared" ref="N51:N54" si="3">L51*M51</f>
         <v>0</v>
       </c>
-      <c r="O51" s="123">
-        <v>2</v>
-      </c>
-      <c r="P51" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="123">
+      <c r="O51" s="80">
+        <v>2</v>
+      </c>
+      <c r="P51" s="80">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="80">
         <f t="shared" ref="Q51:Q54" si="4">O51*P51</f>
         <v>4</v>
       </c>
-      <c r="R51" s="121">
-        <v>20</v>
-      </c>
-      <c r="S51" s="121">
+      <c r="R51" s="79">
+        <v>24</v>
+      </c>
+      <c r="S51" s="79">
         <v>3</v>
       </c>
-      <c r="T51" s="121">
+      <c r="T51" s="79">
         <f t="shared" ref="T51:T54" si="5">R51*S51</f>
-        <v>60</v>
-      </c>
-      <c r="U51" s="130"/>
-      <c r="V51" s="130">
-        <v>1</v>
-      </c>
-      <c r="W51" s="130">
+        <v>72</v>
+      </c>
+      <c r="U51" s="84"/>
+      <c r="V51" s="84">
+        <v>1</v>
+      </c>
+      <c r="W51" s="84">
         <f t="shared" ref="W51:W54" si="6">U51*V51</f>
         <v>0</v>
       </c>
@@ -3314,183 +3411,187 @@
       </c>
       <c r="AA51">
         <f t="shared" ref="AA51:AA54" si="8">E51+H51+K51+N51+Q51+T51+W51+Z51</f>
-        <v>78</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" ref="AD51:AD54" si="9">N51+Q51+T51+W51+Z51+AC51</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC51" s="86">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="125">
+      <c r="B52" s="81">
         <v>100</v>
       </c>
-      <c r="C52" s="97">
-        <v>1</v>
-      </c>
-      <c r="D52" s="97">
-        <v>2</v>
-      </c>
-      <c r="E52" s="97">
+      <c r="C52" s="65">
+        <v>1</v>
+      </c>
+      <c r="D52" s="65">
+        <v>2</v>
+      </c>
+      <c r="E52" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F52" s="117">
-        <v>1</v>
-      </c>
-      <c r="G52" s="117">
-        <v>2</v>
-      </c>
-      <c r="H52" s="117">
+      <c r="F52" s="76">
+        <v>1</v>
+      </c>
+      <c r="G52" s="76">
+        <v>2</v>
+      </c>
+      <c r="H52" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I52" s="129">
-        <v>1</v>
-      </c>
-      <c r="J52" s="129">
-        <v>1</v>
-      </c>
-      <c r="K52" s="129">
+      <c r="I52" s="83">
+        <v>1</v>
+      </c>
+      <c r="J52" s="83">
+        <v>1</v>
+      </c>
+      <c r="K52" s="83">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L52" s="120">
-        <v>2</v>
-      </c>
-      <c r="M52" s="120">
-        <v>1</v>
-      </c>
-      <c r="N52" s="120">
+      <c r="L52" s="78">
+        <v>2</v>
+      </c>
+      <c r="M52" s="78">
+        <v>1</v>
+      </c>
+      <c r="N52" s="78">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O52" s="123">
+      <c r="O52" s="80">
         <v>0.5</v>
       </c>
-      <c r="P52" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="123">
+      <c r="P52" s="80">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="80">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R52" s="121">
+      <c r="R52" s="79">
+        <v>16</v>
+      </c>
+      <c r="S52" s="79">
+        <v>3</v>
+      </c>
+      <c r="T52" s="79">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="U52" s="84">
         <v>5</v>
       </c>
-      <c r="S52" s="121">
-        <v>3</v>
-      </c>
-      <c r="T52" s="121">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="U52" s="130">
-        <v>5</v>
-      </c>
-      <c r="V52" s="130">
-        <v>1</v>
-      </c>
-      <c r="W52" s="130">
+      <c r="V52" s="84">
+        <v>1</v>
+      </c>
+      <c r="W52" s="84">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="X52" s="56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y52" s="56">
         <v>2</v>
       </c>
       <c r="Z52" s="56">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA52">
         <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC52" s="86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="125">
+      <c r="B53" s="81">
         <v>100</v>
       </c>
-      <c r="C53" s="97">
-        <v>2</v>
-      </c>
-      <c r="D53" s="97">
-        <v>2</v>
-      </c>
-      <c r="E53" s="97">
+      <c r="C53" s="65">
+        <v>2</v>
+      </c>
+      <c r="D53" s="65">
+        <v>2</v>
+      </c>
+      <c r="E53" s="65">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F53" s="117">
+      <c r="F53" s="76">
         <v>0.5</v>
       </c>
-      <c r="G53" s="117">
-        <v>2</v>
-      </c>
-      <c r="H53" s="117">
+      <c r="G53" s="76">
+        <v>2</v>
+      </c>
+      <c r="H53" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I53" s="129">
-        <v>1</v>
-      </c>
-      <c r="J53" s="129">
-        <v>1</v>
-      </c>
-      <c r="K53" s="129">
+      <c r="I53" s="83">
+        <v>1</v>
+      </c>
+      <c r="J53" s="83">
+        <v>1</v>
+      </c>
+      <c r="K53" s="83">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L53" s="120">
-        <v>2</v>
-      </c>
-      <c r="M53" s="120">
-        <v>1</v>
-      </c>
-      <c r="N53" s="120">
+      <c r="L53" s="78">
+        <v>2</v>
+      </c>
+      <c r="M53" s="78">
+        <v>1</v>
+      </c>
+      <c r="N53" s="78">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O53" s="123">
-        <v>2</v>
-      </c>
-      <c r="P53" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="123">
+      <c r="O53" s="80">
+        <v>2</v>
+      </c>
+      <c r="P53" s="80">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="80">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R53" s="121">
-        <v>15</v>
-      </c>
-      <c r="S53" s="121">
+      <c r="R53" s="79">
+        <v>18</v>
+      </c>
+      <c r="S53" s="79">
         <v>3</v>
       </c>
-      <c r="T53" s="121">
+      <c r="T53" s="79">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="U53" s="130">
+        <v>54</v>
+      </c>
+      <c r="U53" s="84">
         <v>5</v>
       </c>
-      <c r="V53" s="130">
-        <v>1</v>
-      </c>
-      <c r="W53" s="130">
+      <c r="V53" s="84">
+        <v>1</v>
+      </c>
+      <c r="W53" s="84">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3506,108 +3607,147 @@
       </c>
       <c r="AA53">
         <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="AD53">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC53" s="86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="125">
+      <c r="B54" s="81">
         <v>100</v>
       </c>
-      <c r="C54" s="97">
-        <v>1</v>
-      </c>
-      <c r="D54" s="97">
-        <v>2</v>
-      </c>
-      <c r="E54" s="97">
+      <c r="C54" s="65">
+        <v>1</v>
+      </c>
+      <c r="D54" s="65">
+        <v>2</v>
+      </c>
+      <c r="E54" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F54" s="117">
+      <c r="F54" s="76">
         <v>0.5</v>
       </c>
-      <c r="G54" s="117">
-        <v>2</v>
-      </c>
-      <c r="H54" s="117">
+      <c r="G54" s="76">
+        <v>2</v>
+      </c>
+      <c r="H54" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I54" s="129">
-        <v>1</v>
-      </c>
-      <c r="J54" s="129">
-        <v>1</v>
-      </c>
-      <c r="K54" s="129">
+      <c r="I54" s="83">
+        <v>1</v>
+      </c>
+      <c r="J54" s="83">
+        <v>1</v>
+      </c>
+      <c r="K54" s="83">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L54" s="120">
-        <v>2</v>
-      </c>
-      <c r="M54" s="120">
-        <v>1</v>
-      </c>
-      <c r="N54" s="120">
+      <c r="L54" s="78">
+        <v>2</v>
+      </c>
+      <c r="M54" s="78">
+        <v>1</v>
+      </c>
+      <c r="N54" s="78">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O54" s="123">
+      <c r="O54" s="80">
         <v>3</v>
       </c>
-      <c r="P54" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="123">
+      <c r="P54" s="80">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="80">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R54" s="121">
-        <v>10</v>
-      </c>
-      <c r="S54" s="121">
+      <c r="R54" s="79">
+        <v>15</v>
+      </c>
+      <c r="S54" s="79">
         <v>3</v>
       </c>
-      <c r="T54" s="121">
+      <c r="T54" s="79">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="U54" s="130">
+        <v>45</v>
+      </c>
+      <c r="U54" s="84">
         <v>5</v>
       </c>
-      <c r="V54" s="130">
-        <v>1</v>
-      </c>
-      <c r="W54" s="130">
+      <c r="V54" s="84">
+        <v>1</v>
+      </c>
+      <c r="W54" s="84">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="X54" s="56">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y54" s="56">
         <v>2</v>
       </c>
       <c r="Z54" s="56">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AA54">
         <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="AD54">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC54" s="86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R55" s="85"/>
+      <c r="AC55" s="135">
+        <f>AC50+AC51+AC52+AC53+AC54</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE56" s="136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE57" s="137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE58" s="137" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE59" s="137" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE60" s="138" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE61" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:A14"/>
@@ -3625,11 +3765,6 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A7:AJ7"/>
     <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="AD24:AE24"/>
@@ -3640,11 +3775,16 @@
     <mergeCell ref="T24:V24"/>
     <mergeCell ref="W24:Y24"/>
     <mergeCell ref="A23:AJ23"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A7:AJ7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="P8:S8"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="G37:J37"/>
     <mergeCell ref="L37:O37"/>
     <mergeCell ref="P37:S37"/>
     <mergeCell ref="A36:AG36"/>
